--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{309098F0-1CF4-46EF-A0A1-1AF4DE41EA89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F54CC94-8E44-4CF4-81C1-DB61A79F56A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="8010" windowHeight="4905" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="diary-2.0" sheetId="2" r:id="rId3"/>
+    <sheet name="diary-2.0-list" sheetId="3" r:id="rId4"/>
+    <sheet name="measures" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +143,344 @@
   </si>
   <si>
     <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27/12/2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dumbell shoulder pushup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anold press</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10x6x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10x4x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5x10x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10x5x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10x16x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40x6x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶夹胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双腿上提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧方位上提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*10*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25*8*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5*10*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*10*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*10*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*6*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*10*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*6*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*10*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40*6*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20*8*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BodyPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-barbell push up</t>
+  </si>
+  <si>
+    <t>shoulder-barbell push up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-anold push up</t>
+  </si>
+  <si>
+    <t>shoulder-anold push up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-dumbell push up</t>
+  </si>
+  <si>
+    <t>shoulder-dumbell push up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-bend row</t>
+  </si>
+  <si>
+    <t>back-bend row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-single hand row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-single hand pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thigh-squart</t>
+  </si>
+  <si>
+    <t>thigh-squart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thigh-deadlift</t>
+  </si>
+  <si>
+    <t>thigh-deadlift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-barbell push(flat bench)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-barbell push(incline bench)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-dumbbell push(incline bench)</t>
+  </si>
+  <si>
+    <t>chest-dumbbell push(incline bench)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-dumbbell push(flat bench)</t>
+  </si>
+  <si>
+    <t>chest-dumbbell push(flat bench)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-string pull together</t>
+  </si>
+  <si>
+    <t>total lifting weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average lifting weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-barbell push(flat bench)</t>
+  </si>
+  <si>
+    <t>chest-barbell push(incline bench)</t>
+  </si>
+  <si>
+    <t>chest-string pull together(Upper chest)</t>
+  </si>
+  <si>
+    <t>chest-string pull together(Upper chest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-string pull together(Middle chest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-string pull together(Lower chest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating a biandang at 10:45; performance is better than yesterday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-fly</t>
+  </si>
+  <si>
+    <t>back-pull down</t>
+  </si>
+  <si>
+    <t>back-single hand pull down</t>
+  </si>
+  <si>
+    <t>back-single hand row</t>
+  </si>
+  <si>
+    <t>back-upper back full up</t>
+  </si>
+  <si>
+    <t>back-upper back full up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm-bicep-curve barbell</t>
+  </si>
+  <si>
+    <t>Arm-bicep-curve barbell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm-bicep-curve dumbbell</t>
+  </si>
+  <si>
+    <t>Arm-bicep-curve dumbbell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm-double-bar push up</t>
+  </si>
+  <si>
+    <t>Arm-double-bar push up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm-bicep-curve string</t>
+  </si>
+  <si>
+    <t>Arm-bicep-curve string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm-tricep-curve string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm-tricep-curve string </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -165,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +523,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,9 +659,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,7 +673,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -641,364 +1044,2689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="AR3" sqref="A1:AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="8.5" style="10" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="2" max="38" width="8.5" style="5" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="9" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-    </row>
-    <row r="2" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="6" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="11" t="s">
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="3" t="s">
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AK2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AL2" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="X3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="6" t="s">
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="6" t="s">
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="N4" s="10" t="s">
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="X4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="Y4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Z4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="AA4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="AB4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="AC4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="AD4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="AE4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="AF4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="AG4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="AH4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AI4" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AO4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43462</v>
       </c>
-      <c r="N6" s="10">
+      <c r="X6" s="5">
         <v>30</v>
       </c>
-      <c r="O6" s="10">
+      <c r="Y6" s="5">
         <v>16</v>
       </c>
-      <c r="P6" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="Z6" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="5">
         <v>20</v>
       </c>
-      <c r="R6" s="10">
-        <v>10</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="AB6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="5">
         <v>5</v>
       </c>
-      <c r="U6" s="10">
-        <v>10</v>
-      </c>
-      <c r="V6" s="10">
+      <c r="AE6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="5">
         <v>4</v>
       </c>
-      <c r="X6" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="10">
+      <c r="AH6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="N7" s="10">
+      <c r="X7" s="5">
         <v>40</v>
       </c>
-      <c r="O7" s="10">
+      <c r="Y7" s="5">
         <v>14</v>
       </c>
-      <c r="P7" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Z7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="N8" s="10">
+      <c r="X8" s="5">
         <v>45</v>
       </c>
-      <c r="O8" s="10">
-        <v>10</v>
-      </c>
-      <c r="P8" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="N9" s="10">
+      <c r="X9" s="5">
         <v>50</v>
       </c>
-      <c r="O9" s="10">
+      <c r="Y9" s="5">
         <v>6</v>
       </c>
-      <c r="P9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="Z9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="5">
+        <v>60</v>
+      </c>
+      <c r="S10" s="5">
+        <v>12</v>
+      </c>
+      <c r="T10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R11" s="5">
+        <v>90</v>
+      </c>
+      <c r="S11" s="5">
+        <v>10</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R12" s="5">
+        <v>90</v>
+      </c>
+      <c r="S12" s="5">
+        <v>6</v>
+      </c>
+      <c r="T12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R13" s="5">
+        <v>90</v>
+      </c>
+      <c r="S13" s="5">
+        <v>3</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R14" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="S14" s="5">
+        <v>6</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R15" s="5">
+        <v>45</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>43463</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>43464</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>43466</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>43467</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>43468</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>43469</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>43470</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>43471</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>43472</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B26" s="5">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>20</v>
+      </c>
+      <c r="K26" s="5">
+        <v>10</v>
+      </c>
+      <c r="L26" s="5">
+        <v>4</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="F27" s="5">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="F28" s="5">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>43473</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="O32" s="5">
+        <v>30</v>
+      </c>
+      <c r="P32" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O33" s="5">
+        <v>90</v>
+      </c>
+      <c r="P33" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O34" s="5">
+        <v>90</v>
+      </c>
+      <c r="P34" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O35" s="5">
+        <v>80</v>
+      </c>
+      <c r="P35" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="O36" s="5">
+        <v>80</v>
+      </c>
+      <c r="P36" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>43474</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="U37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL40" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>43475</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F53" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>43477</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W2:Y3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG2:AI3"/>
+    <mergeCell ref="X2:AF2"/>
+    <mergeCell ref="X1:AI1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54597BC-826F-4859-90EA-27484CAA937B}">
+  <dimension ref="A1:AR14"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="AP2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462FA0D5-39B8-444A-83F3-E7038D7D4C47}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">D3*E3*F3</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>7.5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>43481</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>43482</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>D10*E10*F10</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G22" si="1">D11*E11*F11</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>43486</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>43487</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>43487</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>43487</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>43487</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>43487</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>D23*E23*F23</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G73" si="2">D24*E24*F24</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>43493</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>43494</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>43495</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>43495</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>12.5</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="27">
+        <v>43495</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="27">
+        <v>43495</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46">
+        <v>7.5</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="27">
+        <v>43495</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>43496</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55">
+        <f>5*2+7.5</f>
+        <v>17.5</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56">
+        <v>22.5</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57">
+        <v>7.5</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58">
+        <v>7.5</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="27">
+        <v>43497</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>50</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70">
+        <v>15</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="27">
+        <v>43498</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9464458-03FE-45A5-A31F-ADF1F18DC7D2}">
+          <x14:formula1>
+            <xm:f>'diary-2.0-list'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB98078A-ADC6-48E3-833E-06944BFB5129}">
+          <x14:formula1>
+            <xm:f>'diary-2.0-list'!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA55817-3B15-42B3-BC64-7A7E29162FF6}">
+          <x14:formula1>
+            <xm:f>'diary-2.0-list'!$A$2:$A$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50D75BBF-B3B7-4981-9963-349F41314A06}">
+          <x14:formula1>
+            <xm:f>'diary-2.0-list'!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>C18:C197</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB01002F-7F14-4831-BDB1-FA9D2A289EE8}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402565E6-9A14-4157-AE28-AB07C598E1B5}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>43494</v>
+      </c>
+      <c r="B2">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>43496</v>
+      </c>
+      <c r="B3">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>43497</v>
+      </c>
+      <c r="B4">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>43498</v>
+      </c>
+      <c r="B5">
+        <v>58.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9F54CC94-8E44-4CF4-81C1-DB61A79F56A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintus/document-2019/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="8010" windowHeight="4905" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -13,10 +17,17 @@
     <sheet name="diary-2.0" sheetId="2" r:id="rId3"/>
     <sheet name="diary-2.0-list" sheetId="3" r:id="rId4"/>
     <sheet name="measures" sheetId="5" r:id="rId5"/>
+    <sheet name="food-plan-FEB-MAR" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,32 +493,121 @@
   <si>
     <t xml:space="preserve">Arm-tricep-curve string </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break fast</t>
+  </si>
+  <si>
+    <t>Lunch - post workout</t>
+  </si>
+  <si>
+    <t>pre-workout snacks</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Carb</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>牛肉面
+煎蛋
+青菜
+豆浆</t>
+  </si>
+  <si>
+    <t>香蕉
+咖啡</t>
+  </si>
+  <si>
+    <t>馒头
+红烧羊腿烧豌豆
+水煮西蓝花</t>
+  </si>
+  <si>
+    <t>牛奶
+水煮青菜（饱腹感强，胡萝卜，萝卜，西蓝花，风味）
+土豆肉丝 或者豆子烧肉</t>
+  </si>
+  <si>
+    <t>馒头
+鸡腿烧香菇
+水煮西蓝花</t>
+  </si>
+  <si>
+    <t>牛奶
+水煮青菜（饱腹感强，胡萝卜，萝卜，西蓝花，风味）
+土豆片回锅肉 或者豆子烧半肥瘦肉</t>
+  </si>
+  <si>
+    <t>牛奶
+水煮青菜（饱腹感强，胡萝卜，萝卜，西蓝花，风味）
+土豆肉丝 或者豆子烧半肥瘦肉</t>
+  </si>
+  <si>
+    <t>原料
+香蕉5-10只
+豌豆、黄豆 500g
+西蓝花1000g
+普通叶子青菜：500g
+鸡蛋  10只
+馒头或烧饼5-8个
+鸡腿：4只（500g）
+香菇：200g
+胡萝卜：500g
+土豆：小500g
+猪肉：后退带肥瘦、或夹子肉 500-1000g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +632,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -543,29 +649,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,33 +679,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -608,7 +714,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -616,22 +722,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,28 +746,32 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,13 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -764,8 +868,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,90 +1162,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AR3" sqref="A1:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="38" width="8.5" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="2"/>
+    <col min="39" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="30" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="1:44" ht="45" x14ac:dyDescent="0.2">
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1153,22 +1272,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="36"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1252,24 +1371,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="31" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="31" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="39"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="37"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1736,6 +1855,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1743,11 +1867,6 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,14 +1875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54597BC-826F-4859-90EA-27484CAA937B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
@@ -2009,18 +2128,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462FA0D5-39B8-444A-83F3-E7038D7D4C47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G62" sqref="G62:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3507,25 +3626,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9464458-03FE-45A5-A31F-ADF1F18DC7D2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB98078A-ADC6-48E3-833E-06944BFB5129}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CA55817-3B15-42B3-BC64-7A7E29162FF6}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50D75BBF-B3B7-4981-9963-349F41314A06}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$36</xm:f>
           </x14:formula1>
@@ -3538,16 +3657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB01002F-7F14-4831-BDB1-FA9D2A289EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -3678,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402565E6-9A14-4157-AE28-AB07C598E1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3729,4 +3848,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
+        <v>43514</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>43515</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>43516</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>43517</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
+        <v>43518</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="40">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="41">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="40">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="40">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="40">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="40">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="40">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="40">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40">
+        <v>43544</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintus/document-2019/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B4F27E0-24E3-4DF9-8BF5-2302F5D0ED11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="3555" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,23 +15,23 @@
     <sheet name="measures" sheetId="5" r:id="rId5"/>
     <sheet name="food-plan-FEB-MAR" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="146">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,10 +328,6 @@
   </si>
   <si>
     <t>shoulder-anold push up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoulder-fly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,25 +559,64 @@
 土豆：小500g
 猪肉：后退带肥瘦、或夹子肉 500-1000g</t>
   </si>
+  <si>
+    <t>back-pull up</t>
+  </si>
+  <si>
+    <t>back-pull up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-sitting row</t>
+  </si>
+  <si>
+    <t>back-sitting row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm-tricep-push up</t>
+  </si>
+  <si>
+    <t>Arm-tricep-push up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-side lift</t>
+  </si>
+  <si>
+    <t>shoulder-side lift-middle string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-bent-back string lift</t>
+  </si>
+  <si>
+    <t>shoulder-bent-back string lift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -594,7 +625,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -602,8 +633,16 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -769,9 +808,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -795,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -838,6 +877,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -868,14 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1162,7 +1202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1172,80 +1212,80 @@
       <selection pane="bottomRight" activeCell="AR3" sqref="A1:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="38" width="8.5" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="2"/>
+    <col min="39" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="38" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="45" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1272,22 +1312,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="34"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1371,24 +1411,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="29" t="s">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="29" t="s">
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="37"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1855,11 +1895,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1867,6 +1902,11 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,14 +1915,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
@@ -2128,18 +2168,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G73"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G122" sqref="G122:G128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2162,13 +2203,13 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
-        <v>95</v>
-      </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2181,7 +2222,7 @@
         <v>43481</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -2202,7 +2243,7 @@
         <v>43481</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -2223,7 +2264,7 @@
         <v>43481</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -2307,7 +2348,7 @@
         <v>43482</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2315,7 +2356,7 @@
         <v>43486</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -2336,7 +2377,7 @@
         <v>43486</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -2357,7 +2398,7 @@
         <v>43486</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -2378,7 +2419,7 @@
         <v>43486</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -2399,7 +2440,7 @@
         <v>43486</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -2420,7 +2461,7 @@
         <v>43486</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -2441,7 +2482,7 @@
         <v>43486</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -2462,7 +2503,7 @@
         <v>43486</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>65</v>
@@ -2483,7 +2524,7 @@
         <v>43487</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -2504,7 +2545,7 @@
         <v>43487</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -2525,7 +2566,7 @@
         <v>43487</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>30</v>
@@ -2546,7 +2587,7 @@
         <v>43487</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -2567,7 +2608,7 @@
         <v>43487</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2588,7 +2629,7 @@
         <v>43493</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>45</v>
@@ -2609,7 +2650,7 @@
         <v>43493</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -2621,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:G73" si="2">D24*E24*F24</f>
+        <f t="shared" ref="G24:G87" si="2">D24*E24*F24</f>
         <v>600</v>
       </c>
     </row>
@@ -2630,7 +2671,7 @@
         <v>43493</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>90</v>
@@ -2651,7 +2692,7 @@
         <v>43493</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>100</v>
@@ -2672,7 +2713,7 @@
         <v>43493</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>100</v>
@@ -2693,7 +2734,7 @@
         <v>43493</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>100</v>
@@ -2714,7 +2755,7 @@
         <v>43493</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2735,7 +2776,7 @@
         <v>43493</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30">
         <v>50</v>
@@ -2756,7 +2797,7 @@
         <v>43494</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>40</v>
@@ -2772,7 +2813,7 @@
         <v>960</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2780,7 +2821,7 @@
         <v>43494</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -2801,7 +2842,7 @@
         <v>43494</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>55</v>
@@ -2822,7 +2863,7 @@
         <v>43494</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>45</v>
@@ -2843,7 +2884,7 @@
         <v>43494</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2864,7 +2905,7 @@
         <v>43494</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -2885,7 +2926,7 @@
         <v>43494</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -2906,7 +2947,7 @@
         <v>43494</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -2927,7 +2968,7 @@
         <v>43494</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>30</v>
@@ -2948,7 +2989,7 @@
         <v>43494</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>30</v>
@@ -2969,7 +3010,7 @@
         <v>43494</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>25</v>
@@ -2990,7 +3031,7 @@
         <v>43494</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3011,7 +3052,7 @@
         <v>43495</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -3032,7 +3073,7 @@
         <v>43495</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44">
         <v>12.5</v>
@@ -3053,7 +3094,7 @@
         <v>43495</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -3074,7 +3115,7 @@
         <v>43495</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>7.5</v>
@@ -3116,7 +3157,7 @@
         <v>43496</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48">
         <v>40</v>
@@ -3137,7 +3178,7 @@
         <v>43496</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49">
         <v>45</v>
@@ -3158,7 +3199,7 @@
         <v>43496</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>50</v>
@@ -3179,7 +3220,7 @@
         <v>43496</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -3197,7 +3238,7 @@
         <v>43496</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -3215,7 +3256,7 @@
         <v>43496</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53">
         <v>20</v>
@@ -3236,7 +3277,7 @@
         <v>43496</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -3254,7 +3295,7 @@
         <v>43497</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <f>5*2+7.5</f>
@@ -3276,7 +3317,7 @@
         <v>43497</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56">
         <v>22.5</v>
@@ -3297,7 +3338,7 @@
         <v>43497</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>7.5</v>
@@ -3318,7 +3359,7 @@
         <v>43497</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58">
         <v>7.5</v>
@@ -3339,7 +3380,7 @@
         <v>43497</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -3357,7 +3398,7 @@
         <v>43497</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -3375,7 +3416,7 @@
         <v>43497</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -3393,7 +3434,7 @@
         <v>43498</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62">
         <v>30</v>
@@ -3414,7 +3455,7 @@
         <v>43498</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63">
         <v>40</v>
@@ -3435,7 +3476,7 @@
         <v>43498</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64">
         <v>50</v>
@@ -3456,7 +3497,7 @@
         <v>43498</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>55</v>
@@ -3477,7 +3518,7 @@
         <v>43498</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>40</v>
@@ -3498,7 +3539,7 @@
         <v>43498</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67">
         <v>30</v>
@@ -3519,7 +3560,7 @@
         <v>43498</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G68">
         <f t="shared" si="2"/>
@@ -3531,7 +3572,7 @@
         <v>43498</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69">
         <v>15</v>
@@ -3552,7 +3593,7 @@
         <v>43498</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -3573,7 +3614,7 @@
         <v>43498</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71">
         <v>15</v>
@@ -3594,7 +3635,7 @@
         <v>43498</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G72">
         <f t="shared" si="2"/>
@@ -3606,7 +3647,7 @@
         <v>43498</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -3617,6 +3658,1194 @@
       <c r="G73">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74">
+        <f>20+0</f>
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75">
+        <f>20+10</f>
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <f>20+20</f>
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77">
+        <f>20+30</f>
+        <v>50</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79">
+        <f>20+50</f>
+        <v>70</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80">
+        <f>20+55</f>
+        <v>75</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <f>20+45</f>
+        <v>65</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <f>20+30</f>
+        <v>50</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84">
+        <f>20+15</f>
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85">
+        <f>20+20</f>
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86">
+        <f>20+25</f>
+        <v>45</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>12.5</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88">
+        <f>20+45</f>
+        <v>65</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ref="G88:G128" si="3">D88*E88*F88</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
+        <f>20+40</f>
+        <v>60</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90">
+        <f>20+35</f>
+        <v>55</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <f>20+30</f>
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="27">
+        <v>43514</v>
+      </c>
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C93" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93">
+        <v>12.5</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95">
+        <v>7.5</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C97" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="27">
+        <v>43515</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98">
+        <f>15+10</f>
+        <v>25</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="27">
+        <v>43516</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="E99">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="27">
+        <v>43516</v>
+      </c>
+      <c r="B100" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <f>15+30</f>
+        <v>45</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="27">
+        <v>43516</v>
+      </c>
+      <c r="C101" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="27">
+        <v>43516</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="27">
+        <v>43516</v>
+      </c>
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103">
+        <v>-4</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C104" t="s">
+        <v>109</v>
+      </c>
+      <c r="D104">
+        <f>5+10</f>
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105">
+        <f>5+15</f>
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106">
+        <f>5+15</f>
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107">
+        <v>7.5</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108">
+        <v>7.5</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C109" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109">
+        <v>12</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="27">
+        <v>43517</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110">
+        <v>4.5</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111">
+        <f>15+10</f>
+        <v>25</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C112" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C113" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113">
+        <f>15+25</f>
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C114" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114">
+        <f>15+25</f>
+        <v>40</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C115" t="s">
+        <v>96</v>
+      </c>
+      <c r="D115">
+        <f>15+25</f>
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117">
+        <v>12.5</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118">
+        <v>12.5</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119">
+        <v>12.5</v>
+      </c>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C120" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="27">
+        <v>43518</v>
+      </c>
+      <c r="C121" t="s">
+        <v>75</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122">
+        <f>7.5+15*2</f>
+        <v>37.5</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123">
+        <v>65</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124">
+        <f>7.5+15*4</f>
+        <v>67.5</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125">
+        <f>7.5+15*4+5*2</f>
+        <v>77.5</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C126" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126">
+        <f>7.5+15*4+10*2</f>
+        <v>87.5</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127">
+        <f>15+20*4</f>
+        <v>95</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="27">
+        <v>43521</v>
+      </c>
+      <c r="C128" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128">
+        <f>7.5+15*4</f>
+        <v>67.5</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="3"/>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -3626,29 +4855,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$9</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$15</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$19</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$36</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C197</xm:sqref>
+          <xm:sqref>C18:C203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3657,16 +4886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -3681,7 +4910,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -3691,102 +4920,127 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>86</v>
+      <c r="A12" s="30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3797,14 +5051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -3851,271 +5108,283 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="29">
+        <v>43514</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A3" s="41">
-        <v>43514</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3">
+        <v>221.2</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>96.7</v>
+      </c>
+      <c r="I3">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="29">
+        <v>43515</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
+        <v>43516</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>43517</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
-        <v>43515</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>43518</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A5" s="41">
-        <v>43516</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A6" s="41">
-        <v>43517</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="A7" s="41">
-        <v>43518</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="40">
+      <c r="A8" s="28">
         <v>43519</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
+      <c r="A9" s="28">
         <v>43520</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
+      <c r="A10" s="29">
         <v>43521</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+      <c r="A11" s="29">
         <v>43522</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="41">
+      <c r="A12" s="29">
         <v>43523</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="41">
+      <c r="A13" s="29">
         <v>43524</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="41">
+      <c r="A14" s="29">
         <v>43525</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
+      <c r="A15" s="28">
         <v>43526</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
+      <c r="A16" s="28">
         <v>43527</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
+      <c r="A17" s="28">
         <v>43528</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
+      <c r="A18" s="28">
         <v>43529</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
+      <c r="A19" s="28">
         <v>43530</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40">
+      <c r="A20" s="28">
         <v>43531</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
+      <c r="A21" s="28">
         <v>43532</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
+      <c r="A22" s="28">
         <v>43533</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
+      <c r="A23" s="28">
         <v>43534</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
+      <c r="A24" s="28">
         <v>43535</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
+      <c r="A25" s="28">
         <v>43536</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40">
+      <c r="A26" s="28">
         <v>43537</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40">
+      <c r="A27" s="28">
         <v>43538</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="A28" s="28">
         <v>43539</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
+      <c r="A29" s="28">
         <v>43540</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
+      <c r="A30" s="28">
         <v>43541</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40">
+      <c r="A31" s="28">
         <v>43542</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+      <c r="A32" s="28">
         <v>43543</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40">
+      <c r="A33" s="28">
         <v>43544</v>
       </c>
     </row>
@@ -4123,6 +5392,8 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8B4F27E0-24E3-4DF9-8BF5-2302F5D0ED11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED18F202-1BF5-4BE8-A147-91FE18E5BCB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +597,9 @@
   <si>
     <t>shoulder-bent-back string lift</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest-string pull together(Lower chest)</t>
   </si>
 </sst>
 </file>
@@ -880,12 +883,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -914,6 +911,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1220,53 +1223,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
@@ -1274,18 +1277,18 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1312,22 +1315,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37" t="s">
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1411,24 +1414,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="34" t="s">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="34" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="42"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1895,6 +1898,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1902,11 +1910,6 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,11 +2172,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122:G128"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3984,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <f t="shared" ref="G88:G128" si="3">D88*E88*F88</f>
+        <f t="shared" ref="G88:G135" si="3">D88*E88*F88</f>
         <v>260</v>
       </c>
     </row>
@@ -4846,6 +4849,185 @@
       <c r="G128">
         <f t="shared" si="3"/>
         <v>540</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C129" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C130" t="s">
+        <v>88</v>
+      </c>
+      <c r="D130">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131">
+        <v>12.5</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C132" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C133" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133">
+        <f>15+30</f>
+        <v>45</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="E134">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C135" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135">
+        <f>15+20</f>
+        <v>35</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="27">
+        <v>65437</v>
+      </c>
+      <c r="C137" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +5059,7 @@
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C203</xm:sqref>
+          <xm:sqref>C18:C197</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED18F202-1BF5-4BE8-A147-91FE18E5BCB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17F0F557-D2FE-4E0F-A396-F8E68316F3BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="148">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t>chest-string pull together(Lower chest)</t>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,6 +887,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -911,12 +921,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1223,53 +1227,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="41" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="41" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
@@ -1277,18 +1281,18 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1315,22 +1319,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1414,24 +1418,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="32" t="s">
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1898,11 +1902,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1910,6 +1909,11 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2172,11 +2176,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5027,6 +5031,298 @@
         <v>2</v>
       </c>
       <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C138" t="s">
+        <v>109</v>
+      </c>
+      <c r="D138">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>14</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ref="G138:G145" si="4">D138*E138*F138</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C139" t="s">
+        <v>109</v>
+      </c>
+      <c r="D139">
+        <f>15+5</f>
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C140" t="s">
+        <v>109</v>
+      </c>
+      <c r="D140">
+        <f>15+5</f>
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D141">
+        <f>15+5</f>
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C143" t="s">
+        <v>111</v>
+      </c>
+      <c r="D143">
+        <v>7.5</v>
+      </c>
+      <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144">
+        <v>7.5</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C145" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145">
+        <v>7.5</v>
+      </c>
+      <c r="E145">
+        <v>7</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C146" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C148" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C149" t="s">
+        <v>117</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C150" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="27">
+        <v>43523</v>
+      </c>
+      <c r="C152" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>11</v>
+      </c>
+      <c r="F152">
         <v>1</v>
       </c>
     </row>
@@ -5059,7 +5355,7 @@
           <x14:formula1>
             <xm:f>'diary-2.0-list'!$A$2:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C197</xm:sqref>
+          <xm:sqref>C18:C209</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17F0F557-D2FE-4E0F-A396-F8E68316F3BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51BC23F5-6E83-46D0-8935-C03B7CEF6283}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="measures" sheetId="5" r:id="rId5"/>
     <sheet name="food-plan-FEB-MAR" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'diary-2.0'!$C$1:$C$159</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="151">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,10 +577,6 @@
     <t>back-sitting row</t>
   </si>
   <si>
-    <t>back-sitting row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arm-tricep-push up</t>
   </si>
   <si>
@@ -600,6 +599,21 @@
   </si>
   <si>
     <t>chest-string pull together(Lower chest)</t>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-sitting raw - narrow grabbing</t>
+  </si>
+  <si>
+    <t>back-sitting raw - narrow grabbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back-sitting row - wide grabbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>full</t>
@@ -887,12 +901,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -921,6 +929,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1227,53 +1241,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
@@ -1281,18 +1295,18 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1319,22 +1333,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37" t="s">
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1418,24 +1432,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="34" t="s">
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="34" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="42"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1902,6 +1916,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1909,11 +1928,6 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,11 +2190,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J152"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2219,12 +2234,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>43481</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>43481</v>
       </c>
@@ -2245,7 +2260,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>43481</v>
       </c>
@@ -2266,7 +2281,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>43481</v>
       </c>
@@ -2287,7 +2302,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>43481</v>
       </c>
@@ -2308,7 +2323,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>43481</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>43481</v>
       </c>
@@ -2350,7 +2365,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>43482</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>43487</v>
       </c>
@@ -2547,7 +2562,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>43487</v>
       </c>
@@ -2568,7 +2583,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>43487</v>
       </c>
@@ -2589,7 +2604,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>43487</v>
       </c>
@@ -2610,7 +2625,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>43487</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>43494</v>
       </c>
@@ -2823,7 +2838,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>43494</v>
       </c>
@@ -2844,7 +2859,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>43494</v>
       </c>
@@ -2865,7 +2880,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>43494</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>43494</v>
       </c>
@@ -2907,7 +2922,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>43494</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>43494</v>
       </c>
@@ -2949,7 +2964,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>43494</v>
       </c>
@@ -2970,7 +2985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>43494</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>43494</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>43494</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>43494</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>43495</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>43495</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>43495</v>
       </c>
@@ -3117,7 +3132,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>43495</v>
       </c>
@@ -3138,7 +3153,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>43495</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>43496</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>43496</v>
       </c>
@@ -3201,7 +3216,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>43496</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>43496</v>
       </c>
@@ -3240,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>43496</v>
       </c>
@@ -3258,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>43496</v>
       </c>
@@ -3279,7 +3294,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>43496</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>43497</v>
       </c>
@@ -3319,7 +3334,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>43497</v>
       </c>
@@ -3340,7 +3355,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>43497</v>
       </c>
@@ -3361,7 +3376,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>43497</v>
       </c>
@@ -3382,7 +3397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>43497</v>
       </c>
@@ -3400,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>43497</v>
       </c>
@@ -3418,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>43497</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>43498</v>
       </c>
@@ -3457,7 +3472,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>43498</v>
       </c>
@@ -3478,7 +3493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>43498</v>
       </c>
@@ -3499,7 +3514,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>43498</v>
       </c>
@@ -3520,7 +3535,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>43498</v>
       </c>
@@ -3541,7 +3556,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>43498</v>
       </c>
@@ -3562,7 +3577,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>43498</v>
       </c>
@@ -3574,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>43498</v>
       </c>
@@ -3595,7 +3610,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>43498</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>43498</v>
       </c>
@@ -3637,7 +3652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>43498</v>
       </c>
@@ -3649,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>43498</v>
       </c>
@@ -3865,7 +3880,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>43514</v>
       </c>
@@ -3886,7 +3901,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>43514</v>
       </c>
@@ -3908,7 +3923,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>43514</v>
       </c>
@@ -3930,7 +3945,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27">
         <v>43514</v>
       </c>
@@ -3952,7 +3967,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
         <v>43514</v>
       </c>
@@ -3973,7 +3988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27">
         <v>43514</v>
       </c>
@@ -3995,7 +4010,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27">
         <v>43514</v>
       </c>
@@ -4017,7 +4032,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
         <v>43514</v>
       </c>
@@ -4039,7 +4054,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27">
         <v>43514</v>
       </c>
@@ -4061,7 +4076,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27">
         <v>43514</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>43515</v>
       </c>
@@ -4103,7 +4118,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>43515</v>
       </c>
@@ -4124,12 +4139,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27">
         <v>43515</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95">
         <v>7.5</v>
@@ -4145,12 +4160,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
         <v>43515</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -4166,12 +4181,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27">
         <v>43515</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -4187,7 +4202,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27">
         <v>43515</v>
       </c>
@@ -4209,7 +4224,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
         <v>43516</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>43516</v>
       </c>
@@ -4256,7 +4271,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>43516</v>
       </c>
@@ -4274,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>43516</v>
       </c>
@@ -4295,7 +4310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>43516</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>-240</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>43517</v>
       </c>
@@ -4338,7 +4353,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>43517</v>
       </c>
@@ -4360,7 +4375,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>43517</v>
       </c>
@@ -4382,7 +4397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>43517</v>
       </c>
@@ -4403,7 +4418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>43517</v>
       </c>
@@ -4424,12 +4439,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>43517</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
         <v>137</v>
@@ -4445,7 +4460,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>43517</v>
       </c>
@@ -4466,7 +4481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>43518</v>
       </c>
@@ -4488,7 +4503,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27">
         <v>43518</v>
       </c>
@@ -4510,7 +4525,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27">
         <v>43518</v>
       </c>
@@ -4532,7 +4547,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27">
         <v>43518</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27">
         <v>43518</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27">
         <v>43518</v>
       </c>
@@ -4597,7 +4612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27">
         <v>43518</v>
       </c>
@@ -4618,7 +4633,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27">
         <v>43518</v>
       </c>
@@ -4639,7 +4654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27">
         <v>43518</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27">
         <v>43518</v>
       </c>
@@ -4681,7 +4696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>43518</v>
       </c>
@@ -4855,7 +4870,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27">
         <v>65437</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27">
         <v>65437</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27">
         <v>65437</v>
       </c>
@@ -4918,7 +4933,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27">
         <v>65437</v>
       </c>
@@ -4940,7 +4955,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>65437</v>
       </c>
@@ -4962,7 +4977,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27">
         <v>65437</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27">
         <v>65437</v>
       </c>
@@ -5006,12 +5021,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27">
         <v>65437</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5020,12 +5035,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27">
         <v>65437</v>
       </c>
       <c r="C137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -5034,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27">
         <v>43523</v>
       </c>
@@ -5052,11 +5067,11 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138:G145" si="4">D138*E138*F138</f>
+        <f t="shared" ref="G138:G156" si="4">D138*E138*F138</f>
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27">
         <v>43523</v>
       </c>
@@ -5078,7 +5093,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27">
         <v>43523</v>
       </c>
@@ -5100,7 +5115,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27">
         <v>43523</v>
       </c>
@@ -5122,7 +5137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27">
         <v>43523</v>
       </c>
@@ -5144,7 +5159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27">
         <v>43523</v>
       </c>
@@ -5165,7 +5180,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27">
         <v>43523</v>
       </c>
@@ -5186,7 +5201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27">
         <v>43523</v>
       </c>
@@ -5207,7 +5222,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27">
         <v>43523</v>
       </c>
@@ -5215,7 +5230,7 @@
         <v>113</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E146">
         <v>12</v>
@@ -5224,7 +5239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27">
         <v>43523</v>
       </c>
@@ -5240,8 +5255,12 @@
       <c r="F147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27">
         <v>43523</v>
       </c>
@@ -5257,8 +5276,12 @@
       <c r="F148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27">
         <v>43523</v>
       </c>
@@ -5274,8 +5297,12 @@
       <c r="F149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27">
         <v>43523</v>
       </c>
@@ -5291,8 +5318,12 @@
       <c r="F150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27">
         <v>43523</v>
       </c>
@@ -5308,8 +5339,12 @@
       <c r="F151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27">
         <v>43523</v>
       </c>
@@ -5325,8 +5360,152 @@
       <c r="F152">
         <v>1</v>
       </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C153" t="s">
+        <v>77</v>
+      </c>
+      <c r="D153">
+        <f>7+20</f>
+        <v>27</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C154" t="s">
+        <v>77</v>
+      </c>
+      <c r="D154">
+        <f>7+20</f>
+        <v>27</v>
+      </c>
+      <c r="E154">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="4"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155">
+        <f>7+30</f>
+        <v>37</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C156" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>12</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C157" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" t="s">
+        <v>150</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C158" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158">
+        <v>-2</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>-3</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C159" xr:uid="{1AF56F10-53C2-459E-B5AF-CB8BD8C547DB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="thigh-deadlift"/>
+        <filter val="thigh-squart"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5341,21 +5520,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$13</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$19</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$41</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C209</xm:sqref>
+          <xm:sqref>C18:C208</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5365,10 +5544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5403,12 +5582,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -5423,101 +5602,106 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>118</v>
       </c>
     </row>

--- a/workout-diary.xlsx
+++ b/workout-diary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51BC23F5-6E83-46D0-8935-C03B7CEF6283}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9AA601DE-A34C-4E26-B0D2-762303822C56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="465" windowWidth="28035" windowHeight="17535" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diary-1.0" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="157">
   <si>
     <t xml:space="preserve">Chest </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,10 +594,6 @@
     <t>shoulder-bent-back string lift</t>
   </si>
   <si>
-    <t>shoulder-bent-back string lift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chest-string pull together(Lower chest)</t>
   </si>
   <si>
@@ -617,6 +613,31 @@
   </si>
   <si>
     <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-side lift-middle string</t>
+  </si>
+  <si>
+    <t>shoulder-bent-back string -dumbbell fly</t>
+  </si>
+  <si>
+    <t>shoulder-bent-back string -dumbbell fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-bent-back string - string pull</t>
+  </si>
+  <si>
+    <t>shoulder-bent-back string - string pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/2/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/+5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,6 +922,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -929,12 +956,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1241,53 +1262,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="41" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="41" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="31" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
       <c r="AO1" s="2" t="s">
@@ -1295,18 +1316,18 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="6" t="s">
         <v>45</v>
       </c>
@@ -1333,22 +1354,22 @@
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="39"/>
       <c r="AJ2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1432,24 +1453,24 @@
       <c r="W3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="32" t="s">
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
@@ -1916,11 +1937,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="X3:Z3"/>
@@ -1928,6 +1944,11 @@
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="X2:AF2"/>
     <mergeCell ref="X1:AI1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,12 +2211,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:D128"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2234,12 +2254,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="27">
         <v>43481</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>43481</v>
       </c>
@@ -2260,7 +2280,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>43481</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>43481</v>
       </c>
@@ -2302,7 +2322,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>43481</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>43481</v>
       </c>
@@ -2344,7 +2364,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>43481</v>
       </c>
@@ -2365,7 +2385,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>43482</v>
       </c>
@@ -2541,7 +2561,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>43487</v>
       </c>
@@ -2562,7 +2582,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>43487</v>
       </c>
@@ -2583,7 +2603,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>43487</v>
       </c>
@@ -2604,7 +2624,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>43487</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>43487</v>
       </c>
@@ -2814,7 +2834,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>43494</v>
       </c>
@@ -2838,7 +2858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>43494</v>
       </c>
@@ -2859,7 +2879,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>43494</v>
       </c>
@@ -2880,7 +2900,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>43494</v>
       </c>
@@ -2901,7 +2921,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>43494</v>
       </c>
@@ -2922,7 +2942,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>43494</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>43494</v>
       </c>
@@ -2964,7 +2984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>43494</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>43494</v>
       </c>
@@ -3006,7 +3026,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>43494</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>43494</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>43494</v>
       </c>
@@ -3069,7 +3089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>43495</v>
       </c>
@@ -3090,7 +3110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>43495</v>
       </c>
@@ -3111,7 +3131,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>43495</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>43495</v>
       </c>
@@ -3153,7 +3173,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>43495</v>
       </c>
@@ -3174,7 +3194,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>43496</v>
       </c>
@@ -3195,7 +3215,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>43496</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>43496</v>
       </c>
@@ -3237,7 +3257,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>43496</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>43496</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>43496</v>
       </c>
@@ -3294,7 +3314,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>43496</v>
       </c>
@@ -3312,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>43497</v>
       </c>
@@ -3334,7 +3354,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>43497</v>
       </c>
@@ -3355,7 +3375,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>43497</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>43497</v>
       </c>
@@ -3397,7 +3417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>43497</v>
       </c>
@@ -3415,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>43497</v>
       </c>
@@ -3433,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>43497</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>43498</v>
       </c>
@@ -3472,7 +3492,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>43498</v>
       </c>
@@ -3493,7 +3513,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>43498</v>
       </c>
@@ -3514,7 +3534,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>43498</v>
       </c>
@@ -3535,7 +3555,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>43498</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>43498</v>
       </c>
@@ -3577,7 +3597,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>43498</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>43498</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>43498</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>43498</v>
       </c>
@@ -3652,7 +3672,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>43498</v>
       </c>
@@ -3664,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>43498</v>
       </c>
@@ -3880,7 +3900,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>43514</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>43514</v>
       </c>
@@ -3923,7 +3943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>43514</v>
       </c>
@@ -3945,7 +3965,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="27">
         <v>43514</v>
       </c>
@@ -3967,7 +3987,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
         <v>43514</v>
       </c>
@@ -3988,7 +4008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="27">
         <v>43514</v>
       </c>
@@ -4010,7 +4030,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="27">
         <v>43514</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
         <v>43514</v>
       </c>
@@ -4054,7 +4074,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="27">
         <v>43514</v>
       </c>
@@ -4076,7 +4096,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="27">
         <v>43514</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>43515</v>
       </c>
@@ -4118,7 +4138,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>43515</v>
       </c>
@@ -4139,7 +4159,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="27">
         <v>43515</v>
       </c>
@@ -4160,7 +4180,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
         <v>43515</v>
       </c>
@@ -4181,7 +4201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="27">
         <v>43515</v>
       </c>
@@ -4202,7 +4222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="27">
         <v>43515</v>
       </c>
@@ -4224,7 +4244,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
         <v>43516</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>43516</v>
       </c>
@@ -4271,7 +4291,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>43516</v>
       </c>
@@ -4289,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>43516</v>
       </c>
@@ -4310,7 +4330,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>43516</v>
       </c>
@@ -4331,7 +4351,7 @@
         <v>-240</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>43517</v>
       </c>
@@ -4353,7 +4373,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>43517</v>
       </c>
@@ -4375,7 +4395,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>43517</v>
       </c>
@@ -4397,7 +4417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>43517</v>
       </c>
@@ -4418,7 +4438,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>43517</v>
       </c>
@@ -4439,7 +4459,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>43517</v>
       </c>
@@ -4460,7 +4480,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>43517</v>
       </c>
@@ -4481,7 +4501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>43518</v>
       </c>
@@ -4503,7 +4523,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="27">
         <v>43518</v>
       </c>
@@ -4525,7 +4545,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="27">
         <v>43518</v>
       </c>
@@ -4547,7 +4567,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="27">
         <v>43518</v>
       </c>
@@ -4569,7 +4589,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="27">
         <v>43518</v>
       </c>
@@ -4591,7 +4611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="27">
         <v>43518</v>
       </c>
@@ -4612,7 +4632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="27">
         <v>43518</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="27">
         <v>43518</v>
       </c>
@@ -4654,7 +4674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="27">
         <v>43518</v>
       </c>
@@ -4675,7 +4695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="27">
         <v>43518</v>
       </c>
@@ -4696,7 +4716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>43518</v>
       </c>
@@ -4870,7 +4890,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="27">
         <v>65437</v>
       </c>
@@ -4891,7 +4911,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="27">
         <v>65437</v>
       </c>
@@ -4912,7 +4932,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="27">
         <v>65437</v>
       </c>
@@ -4933,7 +4953,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="27">
         <v>65437</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>65437</v>
       </c>
@@ -4977,7 +4997,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="27">
         <v>65437</v>
       </c>
@@ -4999,7 +5019,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="27">
         <v>65437</v>
       </c>
@@ -5021,12 +5041,12 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="27">
         <v>65437</v>
       </c>
       <c r="C136" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5035,12 +5055,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="27">
         <v>65437</v>
       </c>
       <c r="C137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -5049,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="27">
         <v>43523</v>
       </c>
@@ -5071,7 +5091,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="27">
         <v>43523</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="27">
         <v>43523</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="27">
         <v>43523</v>
       </c>
@@ -5137,7 +5157,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="27">
         <v>43523</v>
       </c>
@@ -5159,7 +5179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="27">
         <v>43523</v>
       </c>
@@ -5180,7 +5200,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="27">
         <v>43523</v>
       </c>
@@ -5201,7 +5221,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="27">
         <v>43523</v>
       </c>
@@ -5222,7 +5242,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="27">
         <v>43523</v>
       </c>
@@ -5230,7 +5250,7 @@
         <v>113</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E146">
         <v>12</v>
@@ -5239,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="27">
         <v>43523</v>
       </c>
@@ -5260,7 +5280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="27">
         <v>43523</v>
       </c>
@@ -5281,7 +5301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="27">
         <v>43523</v>
       </c>
@@ -5302,7 +5322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="27">
         <v>43523</v>
       </c>
@@ -5323,7 +5343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="27">
         <v>43523</v>
       </c>
@@ -5344,7 +5364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="27">
         <v>43523</v>
       </c>
@@ -5365,7 +5385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="27">
         <v>43524</v>
       </c>
@@ -5387,7 +5407,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="27">
         <v>43524</v>
       </c>
@@ -5409,7 +5429,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="27">
         <v>43524</v>
       </c>
@@ -5431,7 +5451,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="27">
         <v>43524</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="27">
         <v>43524</v>
       </c>
@@ -5460,7 +5480,7 @@
         <v>104</v>
       </c>
       <c r="D157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E157">
         <v>10</v>
@@ -5469,12 +5489,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="27">
         <v>43524</v>
       </c>
       <c r="C158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D158">
         <v>-2</v>
@@ -5486,7 +5506,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="27">
+        <v>43524</v>
+      </c>
+      <c r="C159" t="s">
+        <v>146</v>
+      </c>
       <c r="D159">
         <v>-3</v>
       </c>
@@ -5497,15 +5523,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" t="s">
+        <v>71</v>
+      </c>
+      <c r="D160">
+        <f>15+10</f>
+        <v>25</v>
+      </c>
+      <c r="E160">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ref="G160:G169" si="5">D160*E160*F160</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161">
+        <f>15+15</f>
+        <v>30</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162">
+        <v>7.5</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="C164" t="s">
+        <v>151</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>151</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>16</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" t="s">
+        <v>151</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>14</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" t="s">
+        <v>153</v>
+      </c>
+      <c r="D167" t="s">
+        <v>156</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" t="s">
+        <v>75</v>
+      </c>
+      <c r="D168">
+        <v>12.5</v>
+      </c>
+      <c r="E168">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="C169" t="s">
+        <v>75</v>
+      </c>
+      <c r="D169">
+        <v>15</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C159" xr:uid="{1AF56F10-53C2-459E-B5AF-CB8BD8C547DB}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="thigh-deadlift"/>
-        <filter val="thigh-squart"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C159" xr:uid="{1AF56F10-53C2-459E-B5AF-CB8BD8C547DB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5520,21 +5747,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$14</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$20</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
-            <xm:f>'diary-2.0-list'!$A$2:$A$42</xm:f>
+            <xm:f>'diary-2.0-list'!$A$2:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>C18:C208</xm:sqref>
+          <xm:sqref>C18:C207</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5544,10 +5771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5587,22 +5814,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -5612,96 +5839,101 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5717,7 +5949,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
